--- a/color_harmony/mapping_contrast_scheme.xlsx
+++ b/color_harmony/mapping_contrast_scheme.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anonym\Documents\GitHub\palettepen\about\palettepen\color_harmony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA9ED50-05C3-443A-A764-8D8F4F8D2747}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B81DB2B-EAD1-4922-A109-91A38C0F8D5F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>Color contrast</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>neutral colors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not possible with 6 ITTEN colors? </t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -403,18 +406,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -698,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -708,7 +768,7 @@
     <col min="2" max="2" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +783,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -731,7 +791,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -739,7 +799,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -747,7 +807,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -755,7 +815,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -763,7 +823,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -771,7 +831,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
@@ -779,7 +839,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -790,7 +850,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
@@ -801,7 +861,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
@@ -812,7 +872,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
@@ -822,8 +882,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
@@ -859,7 +919,7 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>44</v>
       </c>
@@ -868,7 +928,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -876,9 +936,12 @@
       <c r="C18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4"/>
@@ -886,7 +949,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -895,7 +958,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -904,7 +967,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -913,7 +976,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -922,7 +985,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
@@ -931,8 +994,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="4"/>
@@ -940,8 +1003,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="4"/>
@@ -949,8 +1012,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="4"/>
@@ -958,8 +1021,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="4"/>
